--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.491</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.361</v>
+        <v>28.466</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.304</v>
+        <v>-0.109</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.098</v>
+        <v>27.907</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.591</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.592</v>
+        <v>28.031</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>22.27896109767473</v>
+        <v>26.81803731091824</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.63232022768482</v>
+        <v>26.81803732255427</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.74733939477953</v>
+        <v>26.81803732923927</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16.61844530291376</v>
+        <v>26.81803731670209</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30.00398407829977</v>
+        <v>26.81803736442555</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.83622821976877</v>
+        <v>26.81803732414595</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.32269430401481</v>
+        <v>26.81803733569675</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.41675913210982</v>
+        <v>26.81803734295353</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.93296410080389</v>
+        <v>26.81803732927286</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39.56244600208434</v>
+        <v>26.81803738228524</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.20427541897799</v>
+        <v>26.81803732652184</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.67551142048721</v>
+        <v>26.81803733789562</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>36.92384553314024</v>
+        <v>26.81803734516315</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.03007707190693</v>
+        <v>26.81803733146183</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>44.76621727611624</v>
+        <v>26.81803738474659</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.7091499642973482</v>
+        <v>26.81803731886331</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.60910021936142</v>
+        <v>26.81803733020915</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.276682651529442</v>
+        <v>26.81803733712303</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-3.148080576969091</v>
+        <v>26.81803732416813</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.895599947213026</v>
+        <v>26.81803737434061</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.33924521071921</v>
+        <v>26.81803737632752</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35.11449113388813</v>
+        <v>26.81803738416888</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.35458516028738</v>
+        <v>26.81803736903364</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>37.15289054926021</v>
+        <v>26.8180373962365</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>41.42090987731053</v>
+        <v>26.81803740537264</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>44.77065737792322</v>
+        <v>26.81803741356457</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>35.13040275603607</v>
+        <v>26.81803739700571</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>43.62481933780185</v>
+        <v>26.81803739390206</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>47.61377616230611</v>
+        <v>26.81803740242056</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>38.28955470990733</v>
+        <v>26.81803738599867</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>49.22619801036655</v>
+        <v>26.81803741558614</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>55.49166006685024</v>
+        <v>26.81803742431065</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>60.17809171707348</v>
+        <v>26.81803743321111</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>48.77677382010512</v>
+        <v>26.81803741527069</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48.74227663225046</v>
+        <v>26.81803739615421</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.93320460488118</v>
+        <v>26.81803740468594</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43.22053596086744</v>
+        <v>26.81803738826192</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>55.15158775149085</v>
+        <v>26.81803741809854</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>61.34321533959024</v>
+        <v>26.81803742661298</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>66.24742864060913</v>
+        <v>26.8180374355333</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>54.41462577421177</v>
+        <v>26.81803741757537</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13.10909652467276</v>
+        <v>26.8180373857888</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16.59878199850364</v>
+        <v>26.81803739390547</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>8.443766444420758</v>
+        <v>26.8180373783403</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>17.02743902480628</v>
+        <v>26.81803740720798</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24.30841050827819</v>
+        <v>26.8180374158104</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.4645988070005</v>
+        <v>26.8180374243118</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>18.26189324910373</v>
+        <v>26.81803740722197</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>40.05538795848673</v>
+        <v>26.81803731905993</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.32439470454864</v>
+        <v>26.81803732961658</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>42.23949863965853</v>
+        <v>26.81803733634413</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.45596593553827</v>
+        <v>26.81803732361681</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>35.93335237625043</v>
+        <v>26.81803736646989</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.55481157180338</v>
+        <v>26.81803733139158</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>44.88298096259299</v>
+        <v>26.81803734180086</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>49.73451047879963</v>
+        <v>26.81803734908286</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>36.69282308267331</v>
+        <v>26.81803733525158</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>44.07565486193457</v>
+        <v>26.81803738305144</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>48.28355774353641</v>
+        <v>26.81803733347096</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>48.59883268953012</v>
+        <v>26.81803734371665</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>53.57394953544147</v>
+        <v>26.81803735100504</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>40.18620931643532</v>
+        <v>26.8180373371655</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>48.69254922100435</v>
+        <v>26.81803738523262</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>17.35203727826169</v>
+        <v>26.81803732611517</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>18.46039013443832</v>
+        <v>26.81803733638203</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>22.93022526653985</v>
+        <v>26.81803734332487</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10.81012825561214</v>
+        <v>26.81803733021398</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>13.86260045151493</v>
+        <v>26.81803737534062</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>37.53789132384681</v>
+        <v>26.81803737761594</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>41.59061731417054</v>
+        <v>26.8180373854529</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>30.65849157424458</v>
+        <v>26.818037370348</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>42.20644087950194</v>
+        <v>26.8180373985282</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>46.58286142767684</v>
+        <v>26.81803740712543</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>51.48551927164233</v>
+        <v>26.81803741532246</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>38.54324938069873</v>
+        <v>26.81803739881067</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>47.32207087637959</v>
+        <v>26.81803739384872</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>52.53713695733165</v>
+        <v>26.81803740234025</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40.15097242386101</v>
+        <v>26.81803738598371</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>52.68970988356207</v>
+        <v>26.81803741657363</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>59.02427512710712</v>
+        <v>26.81803742471712</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>65.2169523831582</v>
+        <v>26.8180374335993</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>50.64349556961286</v>
+        <v>26.81803741574768</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>51.85787253643219</v>
+        <v>26.81803739582584</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>57.2504222134224</v>
+        <v>26.81803740432581</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>44.52587117557717</v>
+        <v>26.81803738797404</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>58.05185218884378</v>
+        <v>26.81803741879677</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>64.33355493770947</v>
+        <v>26.81803742673822</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>70.71828987311453</v>
+        <v>26.81803743563535</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>55.77185044799011</v>
+        <v>26.81803741777617</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>18.22338560875331</v>
+        <v>26.81803738602135</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22.98114131540322</v>
+        <v>26.81803739411757</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>11.64282773840679</v>
+        <v>26.81803737860261</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>21.9605528020879</v>
+        <v>26.81803740839164</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.27699805383761</v>
+        <v>26.8180374164663</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.98173641224606</v>
+        <v>26.81803742495613</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>21.4804281422264</v>
+        <v>26.81803740794812</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>34.54709983047007</v>
+        <v>26.81803731725094</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.44541927579662</v>
+        <v>26.81803732804251</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.61782426290275</v>
+        <v>26.81803733474115</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.33646009851435</v>
+        <v>26.81803732211347</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>37.61999942615386</v>
+        <v>26.81803736682036</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>39.53832563517043</v>
+        <v>26.81803732966455</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>40.48670550167917</v>
+        <v>26.81803734030904</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>44.60319962928496</v>
+        <v>26.81803734756268</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.0351693708369</v>
+        <v>26.81803733383245</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>46.11254526784769</v>
+        <v>26.81803738346008</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.47085375459039</v>
+        <v>26.81803733178339</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.39637589304365</v>
+        <v>26.81803734225972</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>48.64710969182115</v>
+        <v>26.81803734952105</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.70979701422932</v>
+        <v>26.81803733577963</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>50.89318576371583</v>
+        <v>26.81803738565484</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>12.00964377956823</v>
+        <v>26.81803732439802</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>13.75366227264907</v>
+        <v>26.81803733489215</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>17.47577790037822</v>
+        <v>26.8180373418096</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>6.862602445908613</v>
+        <v>26.81803732879207</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>15.7542691965351</v>
+        <v>26.81803737573459</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>39.4468696397102</v>
+        <v>26.8180373780392</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>43.13487606452466</v>
+        <v>26.81803738588405</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>32.73348345758023</v>
+        <v>26.81803737075199</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>43.26842683991519</v>
+        <v>26.81803739899425</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>47.8163686207941</v>
+        <v>26.81803740765175</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>52.33858250892226</v>
+        <v>26.81803741585724</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.0028522984734</v>
+        <v>26.81803739931237</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>49.57779954721562</v>
+        <v>26.81803739433023</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>54.43413456912913</v>
+        <v>26.81803740283059</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.55664249846061</v>
+        <v>26.81803738644869</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>54.15528154721429</v>
+        <v>26.81803741714286</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>60.65414546932028</v>
+        <v>26.81803742534393</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>66.47441227332436</v>
+        <v>26.81803743423546</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>52.47974178957982</v>
+        <v>26.81803741635117</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>54.26855346379517</v>
+        <v>26.81803739631745</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>59.30929496327383</v>
+        <v>26.8180374048274</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>47.07840726774273</v>
+        <v>26.81803738844878</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>59.7037982250467</v>
+        <v>26.81803741938283</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>66.1402981299301</v>
+        <v>26.81803742737832</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>72.16050586446674</v>
+        <v>26.81803743628599</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>57.77569034239072</v>
+        <v>26.81803741839248</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>20.33919821889832</v>
+        <v>26.81803738648018</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>24.73196082107335</v>
+        <v>26.81803739458842</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.9184571976792</v>
+        <v>26.81803737904125</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.26637122607742</v>
+        <v>26.81803740893014</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>30.75309830352372</v>
+        <v>26.81803741705458</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>36.07855547653256</v>
+        <v>26.8180374255575</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>23.17412240017214</v>
+        <v>26.81803740850975</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.90472565999076</v>
+        <v>26.81803730955439</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.47833820293468</v>
+        <v>26.81803732124184</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.71554510918845</v>
+        <v>26.8180373278004</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>21.60906716004776</v>
+        <v>26.8180373156818</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.6271697158855</v>
+        <v>26.81803736146196</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.21879121075622</v>
+        <v>26.81803732244931</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>32.88035218380672</v>
+        <v>26.81803733404936</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.07752535778206</v>
+        <v>26.81803734116707</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.64733951639777</v>
+        <v>26.81803732792677</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>39.81698120684035</v>
+        <v>26.81803737887566</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>34.5140065093057</v>
+        <v>26.81803732480352</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>37.14672726587272</v>
+        <v>26.81803733622771</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>40.4955945329758</v>
+        <v>26.81803734335597</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>32.65542753544239</v>
+        <v>26.81803733009423</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>44.90927007224786</v>
+        <v>26.81803738130472</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>2.18647680444654</v>
+        <v>26.81803731735854</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>5.693556366667302</v>
+        <v>26.81803732875802</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>8.475236225357788</v>
+        <v>26.8180373355409</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2.099077135793112</v>
+        <v>26.81803732301075</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>8.713134392867937</v>
+        <v>26.81803737115232</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.02817338418357</v>
+        <v>26.81803737332386</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>35.73944767190915</v>
+        <v>26.81803738098974</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.57375341885064</v>
+        <v>26.81803736630179</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.51181806948632</v>
+        <v>26.8180373935831</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>42.0973458515275</v>
+        <v>26.81803740274855</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>45.32631118433859</v>
+        <v>26.81803741076267</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>36.32095189023318</v>
+        <v>26.81803739467086</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>43.88675274511968</v>
+        <v>26.81803739045134</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>47.7819272926473</v>
+        <v>26.81803739877879</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>39.08784918118515</v>
+        <v>26.81803738282863</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49.21911619564528</v>
+        <v>26.81803741247752</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>55.754229955916</v>
+        <v>26.81803742123806</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>60.28737473821798</v>
+        <v>26.81803742994444</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>49.56346430093908</v>
+        <v>26.81803741249641</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>48.88310222965647</v>
+        <v>26.81803739267417</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>52.97480327905677</v>
+        <v>26.81803740101453</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>43.89814646665672</v>
+        <v>26.81803738506122</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>55.02590071837454</v>
+        <v>26.81803741495439</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>61.48179331433971</v>
+        <v>26.81803742350784</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>66.226786486351</v>
+        <v>26.8180374322333</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>55.08061789641017</v>
+        <v>26.81803741476709</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>13.92891505054872</v>
+        <v>26.81803738256997</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.33500549114921</v>
+        <v>26.81803739050547</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>9.798373349923375</v>
+        <v>26.81803737539561</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>17.56872340591023</v>
+        <v>26.8180374043235</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.11770760331914</v>
+        <v>26.81803741296586</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.13053459057275</v>
+        <v>26.8180374212822</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19.59242693918468</v>
+        <v>26.8180374046693</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>31.75170133697977</v>
+        <v>26.81803731655566</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.48904638553329</v>
+        <v>26.81803732739775</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.2469252921035</v>
+        <v>26.81803733407532</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.10169606234675</v>
+        <v>26.81803732131764</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>38.51493078235725</v>
+        <v>26.81803736972608</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.81428599330488</v>
+        <v>26.81803732962165</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>37.58478914824722</v>
+        <v>26.8180373403448</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>41.32865262050897</v>
+        <v>26.81803734758632</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.75753656279915</v>
+        <v>26.81803733368078</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>48.34001396160812</v>
+        <v>26.81803738724751</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>42.21313963652906</v>
+        <v>26.81803733192243</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>41.96724134047562</v>
+        <v>26.81803734247441</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>45.86539319065997</v>
+        <v>26.81803734972689</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>33.89015449820351</v>
+        <v>26.81803733580058</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>53.52699726026849</v>
+        <v>26.81803738960158</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>9.671847505556048</v>
+        <v>26.81803732438832</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>10.26276892783113</v>
+        <v>26.81803733493338</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>13.59356796863269</v>
+        <v>26.81803734183906</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>3.044677385151005</v>
+        <v>26.8180373286556</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>17.14654093770336</v>
+        <v>26.81803737938775</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.43178776085465</v>
+        <v>26.8180373809442</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.90285726164888</v>
+        <v>26.81803738876239</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>34.0440584604625</v>
+        <v>26.8180373735049</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>42.93758234340493</v>
+        <v>26.81803740043508</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>46.47832188161456</v>
+        <v>26.81803740902285</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>50.39689017528991</v>
+        <v>26.81803741716309</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>38.87827290165428</v>
+        <v>26.81803740057068</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>51.90048375286919</v>
+        <v>26.81803739815359</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>56.5772756615151</v>
+        <v>26.81803740663723</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>45.12493873158606</v>
+        <v>26.81803739009877</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>55.00983828312</v>
+        <v>26.81803741938399</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>60.49246690841661</v>
+        <v>26.81803742754468</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>65.73913123449579</v>
+        <v>26.81803743638042</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>52.44989888448787</v>
+        <v>26.81803741841956</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>56.9884412384476</v>
+        <v>26.81803740030158</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>61.86321419625355</v>
+        <v>26.81803740879841</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>50.02927722729736</v>
+        <v>26.8180373922566</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>60.89009799656418</v>
+        <v>26.81803742178601</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>66.30121784762947</v>
+        <v>26.81803742974057</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>71.76220648161141</v>
+        <v>26.81803743859551</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>58.05242697146483</v>
+        <v>26.81803742061756</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>21.85510921424614</v>
+        <v>26.81803739014591</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>26.05045409339176</v>
+        <v>26.81803739823709</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>15.73203960581021</v>
+        <v>26.81803738254514</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>23.33895150929313</v>
+        <v>26.8180374111145</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.82416172478607</v>
+        <v>26.81803741916723</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>34.55642922719242</v>
+        <v>26.81803742761264</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.42700352258727</v>
+        <v>26.81803741049125</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.98582062117575</v>
+        <v>26.81803732497153</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.01325706110544</v>
+        <v>26.81803733386831</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.39833289806095</v>
+        <v>26.8180373398731</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>18.78048101692678</v>
+        <v>26.81803732816559</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>40.98825133534152</v>
+        <v>26.81803737247952</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.32748532979564</v>
+        <v>26.81803733600132</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>34.16670729792612</v>
+        <v>26.81803734475987</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>38.40521189508733</v>
+        <v>26.81803735125633</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>24.56605570435204</v>
+        <v>26.81803733853748</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>48.87434952503355</v>
+        <v>26.81803738728738</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>39.82163077135719</v>
+        <v>26.81803733785644</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>37.6711560676984</v>
+        <v>26.81803734647229</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>42.03157448486404</v>
+        <v>26.81803735297516</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.87178943852046</v>
+        <v>26.81803734024593</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>53.13461066602249</v>
+        <v>26.81803738917957</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>12.03902695552262</v>
+        <v>26.81803733131754</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>10.55964871063056</v>
+        <v>26.81803733995454</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>14.45532683314061</v>
+        <v>26.81803734615266</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1.441883315694582</v>
+        <v>26.81803733408359</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>21.91817706540447</v>
+        <v>26.81803738038345</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>42.63516130070241</v>
+        <v>26.81803738190876</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>47.19937182612784</v>
+        <v>26.81803738900367</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>35.15168432653559</v>
+        <v>26.81803737508034</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>44.65840010782753</v>
+        <v>26.81803739948289</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>48.0293103851094</v>
+        <v>26.81803740671215</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>53.03903436728518</v>
+        <v>26.81803741408336</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>39.76588404024393</v>
+        <v>26.81803739900712</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>51.96184261393375</v>
+        <v>26.81803739640435</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>57.58789256120167</v>
+        <v>26.81803740408146</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>44.15394568161037</v>
+        <v>26.81803738902969</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>54.51449262717348</v>
+        <v>26.81803741557127</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>59.62882787966311</v>
+        <v>26.81803742239497</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>65.81842372010902</v>
+        <v>26.81803743037455</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>51.01776545259509</v>
+        <v>26.81803741409729</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>56.13418663899913</v>
+        <v>26.81803739811608</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>61.92252894462811</v>
+        <v>26.81803740580126</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>48.17735667740013</v>
+        <v>26.81803739075266</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>59.44343480254122</v>
+        <v>26.81803741752453</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>64.50866504143647</v>
+        <v>26.81803742416715</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>70.87775332153066</v>
+        <v>26.81803743216066</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>55.73283257979242</v>
+        <v>26.81803741587479</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.01411071499718</v>
+        <v>26.81803738939462</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>31.24033745647946</v>
+        <v>26.81803739672368</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>18.7401820073653</v>
+        <v>26.81803738242289</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>27.13410737282444</v>
+        <v>26.8180374083061</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>33.12325426296304</v>
+        <v>26.81803741505738</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>38.8810411187951</v>
+        <v>26.81803742269276</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.03604713512713</v>
+        <v>26.81803740716055</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>17.36231969964283</v>
+        <v>26.81803731157423</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>17.22568739312064</v>
+        <v>26.81803732216014</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>19.04855626524441</v>
+        <v>26.81803732801187</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>12.5193055407134</v>
+        <v>26.81803731708841</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.37588782045227</v>
+        <v>26.81803735973532</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>21.09522910528164</v>
+        <v>26.81803732272751</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>22.86858220190799</v>
+        <v>26.81803733323834</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.51333250673577</v>
+        <v>26.81803733958487</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.86671999262499</v>
+        <v>26.81803732767684</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.73720850216728</v>
+        <v>26.81803737499621</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>24.6042479688982</v>
+        <v>26.81803732475102</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>26.37602016106868</v>
+        <v>26.81803733510156</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.14056910994578</v>
+        <v>26.81803734145467</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>21.15725873121052</v>
+        <v>26.81803732953339</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>39.05234228091921</v>
+        <v>26.81803737711424</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-3.716681048746548</v>
+        <v>26.81803731817681</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-1.213553722116708</v>
+        <v>26.81803732849107</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>1.064760425579353</v>
+        <v>26.81803733453586</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-5.673565935027857</v>
+        <v>26.81803732326332</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>7.270246290795723</v>
+        <v>26.8180373681457</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.45468327108153</v>
+        <v>26.8180373705293</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>32.1089743306843</v>
+        <v>26.81803737748925</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>24.5077523330317</v>
+        <v>26.81803736418046</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>35.20592981387049</v>
+        <v>26.81803738885125</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>39.81825687533981</v>
+        <v>26.81803739722616</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>43.16441098719469</v>
+        <v>26.81803740451813</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>34.1780906497036</v>
+        <v>26.81803738990295</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>38.34759167757331</v>
+        <v>26.81803738551872</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>42.04169820500879</v>
+        <v>26.8180373930701</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.13000580778218</v>
+        <v>26.81803737863801</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>45.16735945000715</v>
+        <v>26.81803740547709</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>51.55559152700181</v>
+        <v>26.81803741347071</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>56.06620258173104</v>
+        <v>26.81803742138111</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>45.57874514263153</v>
+        <v>26.81803740556047</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>42.59977426654574</v>
+        <v>26.81803738744351</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>46.46001169358885</v>
+        <v>26.81803739500346</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>37.22648090597166</v>
+        <v>26.81803738057262</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>50.20723123430825</v>
+        <v>26.81803740763413</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>56.53844728846188</v>
+        <v>26.81803741543579</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>61.23039863834652</v>
+        <v>26.81803742336086</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>50.3795110071661</v>
+        <v>26.81803740752909</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>11.89472819939084</v>
+        <v>26.81803737850603</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>15.16033178057072</v>
+        <v>26.81803738570126</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>7.243156283286113</v>
+        <v>26.81803737202015</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>17.09214206807919</v>
+        <v>26.81803739820638</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>24.38525711397538</v>
+        <v>26.81803740608444</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.43618453910304</v>
+        <v>26.81803741364342</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>18.98155283392252</v>
+        <v>26.81803739856995</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>13.55934624595899</v>
+        <v>26.81803730691923</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>11.38203637643175</v>
+        <v>26.81803731837879</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>13.30908913701524</v>
+        <v>26.8180373248839</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>5.813542931456658</v>
+        <v>26.81803731269917</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>14.5451034923181</v>
+        <v>26.81803735829513</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>18.57370553065853</v>
+        <v>26.818037319488</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>18.4304970333332</v>
+        <v>26.81803733085509</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>21.30279749559083</v>
+        <v>26.81803733791388</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>12.47835723436366</v>
+        <v>26.818037324615</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>23.24289688953387</v>
+        <v>26.81803737527586</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>22.91186308759815</v>
+        <v>26.81803732181361</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.75574624001615</v>
+        <v>26.81803733300448</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.77867286279232</v>
+        <v>26.8180373400734</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>16.55305334873673</v>
+        <v>26.81803732675454</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.42573626121326</v>
+        <v>26.81803737766946</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-9.396614679947062</v>
+        <v>26.8180373145331</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-8.722656699066553</v>
+        <v>26.81803732570007</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-6.264323559358144</v>
+        <v>26.81803733242655</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-14.05943658432093</v>
+        <v>26.81803731983636</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-7.787363246122117</v>
+        <v>26.81803736771655</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>15.11535083072688</v>
+        <v>26.81803737013005</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>17.31749555710519</v>
+        <v>26.8180373777464</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>9.650576162503015</v>
+        <v>26.81803736304915</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>23.50833344470171</v>
+        <v>26.81803739017732</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.09651078017755</v>
+        <v>26.81803739935572</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.85717046737328</v>
+        <v>26.81803740730806</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>19.2107032132886</v>
+        <v>26.81803739123702</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.43639477897907</v>
+        <v>26.81803738682481</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.79931432316025</v>
+        <v>26.81803739509558</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.6208484050869</v>
+        <v>26.81803737914588</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>34.7398302527733</v>
+        <v>26.81803740866527</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>39.21477070599162</v>
+        <v>26.81803741743871</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>43.26043238143475</v>
+        <v>26.81803742607616</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>31.90669763524125</v>
+        <v>26.81803740866334</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.52921493665824</v>
+        <v>26.81803738900646</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>34.08974587056266</v>
+        <v>26.81803739728939</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.53091037458524</v>
+        <v>26.81803738133659</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>40.62875526714456</v>
+        <v>26.81803741110572</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>45.03043110021208</v>
+        <v>26.81803741966631</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>49.28903870862822</v>
+        <v>26.81803742832181</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>37.51621120369359</v>
+        <v>26.81803741089192</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-4.461669075754579</v>
+        <v>26.81803737909365</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1.585197084191229</v>
+        <v>26.81803738697544</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-9.625019570210654</v>
+        <v>26.81803737186196</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>3.191878508139751</v>
+        <v>26.81803740068411</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>8.669803069056018</v>
+        <v>26.81803740932646</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>12.19705074147019</v>
+        <v>26.81803741757629</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>2.008975787267873</v>
+        <v>26.81803740099263</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.23398983530884</v>
+        <v>26.81803732991332</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>40.03715671953342</v>
+        <v>26.8180373393349</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>43.73659947884199</v>
+        <v>26.81803734577484</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.4197296016399</v>
+        <v>26.81803733341391</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.93085357014807</v>
+        <v>26.81803737477076</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>47.1075944579248</v>
+        <v>26.81803734193259</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>46.86623316076963</v>
+        <v>26.81803735120966</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>51.47466670105184</v>
+        <v>26.81803735817774</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>38.90467875952105</v>
+        <v>26.81803734475642</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>43.25628734467197</v>
+        <v>26.81803739078383</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>50.70052096869809</v>
+        <v>26.81803734383616</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>50.45754255475736</v>
+        <v>26.8180373529623</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>55.19388413440368</v>
+        <v>26.81803735993676</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.27524736383921</v>
+        <v>26.81803734650686</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>47.77173825185785</v>
+        <v>26.81803739280731</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>21.52715584295612</v>
+        <v>26.81803733659708</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>22.00961194281536</v>
+        <v>26.81803734574886</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>26.2531737633523</v>
+        <v>26.81803735239361</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>14.56770936572041</v>
+        <v>26.8180373396624</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>14.71055082613338</v>
+        <v>26.81803738325532</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>36.68729729505463</v>
+        <v>26.81803738484713</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>40.74910370873975</v>
+        <v>26.8180373923537</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>30.24626351343693</v>
+        <v>26.81803737775224</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>41.2222666597331</v>
+        <v>26.81803740347289</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>44.99567559770112</v>
+        <v>26.81803741113472</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>49.59048137916039</v>
+        <v>26.81803741894814</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>37.60980159330545</v>
+        <v>26.81803740309503</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>46.55084314131279</v>
+        <v>26.81803740051656</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>51.72901502442574</v>
+        <v>26.81803740864563</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>39.80318449263155</v>
+        <v>26.81803739284964</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>51.64768266342682</v>
+        <v>26.81803742076539</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>57.26055100591827</v>
+        <v>26.81803742798375</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>63.09178718878512</v>
+        <v>26.81803743644625</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>49.52157931251991</v>
+        <v>26.81803741932078</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>50.9850733202377</v>
+        <v>26.81803740234839</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>56.33968004977802</v>
+        <v>26.8180374104864</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>44.07710184511208</v>
+        <v>26.81803739469406</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>56.87311561237269</v>
+        <v>26.81803742282585</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>62.43678066823003</v>
+        <v>26.81803742985332</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>68.46045144077456</v>
+        <v>26.81803743833083</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>54.51637604475172</v>
+        <v>26.81803742119672</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>19.05933733857291</v>
+        <v>26.81803739288911</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>23.80578957691419</v>
+        <v>26.81803740064424</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>12.87914981031404</v>
+        <v>26.81803738564802</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>22.69229325952046</v>
+        <v>26.81803741285814</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.22460972365571</v>
+        <v>26.81803742001659</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>34.59208648876667</v>
+        <v>26.8180374281098</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.04916127479521</v>
+        <v>26.81803741177866</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>13.8116113982418</v>
+        <v>26.81803730538976</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>13.44241266068443</v>
+        <v>26.81803731613897</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>15.14341749151934</v>
+        <v>26.81803732190523</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>9.124380164943936</v>
+        <v>26.81803731127751</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>20.24118598335448</v>
+        <v>26.81803735165643</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>17.84445747872537</v>
+        <v>26.81803731644736</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>19.32557743006921</v>
+        <v>26.81803732710578</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>21.83794373051178</v>
+        <v>26.81803733336606</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>14.71342763187132</v>
+        <v>26.81803732175834</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>27.77345626555339</v>
+        <v>26.81803736682364</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>21.30005941076846</v>
+        <v>26.81803731852677</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.76383775651509</v>
+        <v>26.81803732902707</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.38949848987828</v>
+        <v>26.81803733529387</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>17.94084453900413</v>
+        <v>26.81803732367434</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.96844547077849</v>
+        <v>26.8180373689688</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-7.248099348386238</v>
+        <v>26.81803731196614</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-5.021059985155766</v>
+        <v>26.8180373224509</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-2.874726585636863</v>
+        <v>26.81803732840765</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-9.088665061845578</v>
+        <v>26.8180373174406</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>0.08893327859347822</v>
+        <v>26.81803735992448</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>21.35804070739137</v>
+        <v>26.81803736264061</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.2261954270845</v>
+        <v>26.81803736945578</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>16.85281261895778</v>
+        <v>26.81803735649694</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.39557101928618</v>
+        <v>26.81803738179224</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>33.76102504406858</v>
+        <v>26.81803739038789</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>36.51916643996477</v>
+        <v>26.8180373975649</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.19696170303769</v>
+        <v>26.81803738324829</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.37052126090443</v>
+        <v>26.81803737753732</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.25953718818726</v>
+        <v>26.81803738494241</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.59543078563338</v>
+        <v>26.81803737086648</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>39.43991393170928</v>
+        <v>26.81803739837947</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>45.53784271440116</v>
+        <v>26.81803740659651</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>49.43434996202794</v>
+        <v>26.81803741439335</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>39.63384793410152</v>
+        <v>26.81803739887242</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.49376404940251</v>
+        <v>26.81803737949225</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>37.54291717134659</v>
+        <v>26.81803738690432</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.56543457512303</v>
+        <v>26.81803737283269</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>44.28907740274309</v>
+        <v>26.81803740059054</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>50.32635145562301</v>
+        <v>26.81803740861796</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>54.39651463652784</v>
+        <v>26.81803741642863</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>44.24581310930445</v>
+        <v>26.81803740089878</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>3.706122162068593</v>
+        <v>26.81803737048486</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>6.161331612793867</v>
+        <v>26.81803737752787</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-0.4996127032595974</v>
+        <v>26.81803736420956</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>11.13057492969219</v>
+        <v>26.8180373910907</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>18.15030057802996</v>
+        <v>26.81803739920416</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>21.58560127061554</v>
+        <v>26.81803740664255</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>12.82039163064456</v>
+        <v>26.81803739188018</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>13.31942744369123</v>
+        <v>26.81803731098245</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>11.86071902942824</v>
+        <v>26.81803732158036</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>14.22324305885268</v>
+        <v>26.8180373278254</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>5.389732439469705</v>
+        <v>26.81803731610365</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>30.53323776252827</v>
+        <v>26.81803736175063</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>17.4197158395789</v>
+        <v>26.81803732236082</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>17.88592692790865</v>
+        <v>26.81803733283501</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>21.12729723793681</v>
+        <v>26.81803733959979</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>11.09022758186973</v>
+        <v>26.81803732684023</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>38.1461164975144</v>
+        <v>26.81803737724967</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>21.31628836560973</v>
+        <v>26.8180373244422</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>21.76101336627789</v>
+        <v>26.81803733475564</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>25.13213601737925</v>
+        <v>26.81803734152825</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>14.74187098310981</v>
+        <v>26.81803732875516</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>42.7228214525073</v>
+        <v>26.81803737935631</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-8.884122923307054</v>
+        <v>26.8180373177658</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-7.648516449792721</v>
+        <v>26.81803732808415</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-4.785194917425539</v>
+        <v>26.81803733453601</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-13.90203128098573</v>
+        <v>26.81803732244025</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>9.289232842966683</v>
+        <v>26.8180373701623</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>31.76684056692948</v>
+        <v>26.81803737265918</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>35.06860545263802</v>
+        <v>26.81803738004645</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.48536985152682</v>
+        <v>26.81803736583326</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>38.21695101768118</v>
+        <v>26.8180373930989</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>42.05894336720183</v>
+        <v>26.81803740154038</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>46.29478217328632</v>
+        <v>26.81803740928045</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>34.52991120394499</v>
+        <v>26.81803739368464</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>40.93003905680388</v>
+        <v>26.81803738784594</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>45.33440188602097</v>
+        <v>26.81803739585093</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>34.35327395041882</v>
+        <v>26.8180373804582</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>48.23426599207261</v>
+        <v>26.81803741010345</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>53.92617987470316</v>
+        <v>26.81803741812852</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>59.39394645311089</v>
+        <v>26.81803742651659</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>46.05462267342185</v>
+        <v>26.81803740965421</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>45.42399732938806</v>
+        <v>26.81803738975483</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>50.00398954394605</v>
+        <v>26.81803739776925</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>38.68570054767452</v>
+        <v>26.81803738237779</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>53.52374575311784</v>
+        <v>26.8180374122621</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>59.16033853538707</v>
+        <v>26.81803742009122</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>64.81826558815423</v>
+        <v>26.81803742849481</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>51.1104635958695</v>
+        <v>26.81803741162232</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>13.14095779688758</v>
+        <v>26.81803738062601</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>17.10392544920272</v>
+        <v>26.81803738826317</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>7.14221389447327</v>
+        <v>26.81803737365377</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>18.85569194810052</v>
+        <v>26.81803740252501</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.49010451927242</v>
+        <v>26.81803741046314</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.48697995383445</v>
+        <v>26.81803741848563</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>18.18734279019687</v>
+        <v>26.8180374024104</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>18.97303577763401</v>
+        <v>26.81803730373115</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>17.69424379744082</v>
+        <v>26.81803731496144</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>19.4808975602917</v>
+        <v>26.81803732106275</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>12.66889535748687</v>
+        <v>26.81803730984844</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>14.21660525266388</v>
+        <v>26.81803734985802</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>22.54805885521625</v>
+        <v>26.81803731502214</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>23.19973686721244</v>
+        <v>26.81803732615819</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.81711323698834</v>
+        <v>26.81803733277184</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>17.89121415332616</v>
+        <v>26.81803732054578</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>21.00515669267402</v>
+        <v>26.81803736524994</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.25153416605932</v>
+        <v>26.81803731715101</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.88093979707234</v>
+        <v>26.81803732811923</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.61830134001476</v>
+        <v>26.81803733473958</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.34455157659443</v>
+        <v>26.81803732250026</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.49310319149541</v>
+        <v>26.81803736746172</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3.555452230362283</v>
+        <v>26.81803731045336</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-2.135030219022945</v>
+        <v>26.81803732140464</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>0.1058415948627729</v>
+        <v>26.81803732770592</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-6.894270090557163</v>
+        <v>26.81803731613488</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-7.846002185926541</v>
+        <v>26.81803735829678</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>14.4919889638368</v>
+        <v>26.81803736141065</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.36752955298958</v>
+        <v>26.81803736856677</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>9.707981565720488</v>
+        <v>26.81803735504333</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.30602150522122</v>
+        <v>26.818037383865</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>30.60261491184852</v>
+        <v>26.81803739292284</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>33.48515158592574</v>
+        <v>26.8180374004939</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.30492789344804</v>
+        <v>26.81803738545933</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.81260120176835</v>
+        <v>26.81803737651731</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.73122909929879</v>
+        <v>26.81803738428035</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>17.77507710524278</v>
+        <v>26.81803736960293</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>36.83447203608059</v>
+        <v>26.81803740082515</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>41.93546053628957</v>
+        <v>26.81803740949378</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>45.9895562961655</v>
+        <v>26.81803741770369</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>35.30864301625419</v>
+        <v>26.81803740142197</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.21988275538084</v>
+        <v>26.81803737852589</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.30919614828441</v>
+        <v>26.81803738629761</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.01615273159362</v>
+        <v>26.81803737162036</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>42.05362762963958</v>
+        <v>26.81803740307605</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>47.09302682089567</v>
+        <v>26.81803741154496</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>51.33169672102931</v>
+        <v>26.81803741976968</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>40.27891516102455</v>
+        <v>26.81803740347653</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-4.977799839456406</v>
+        <v>26.81803736940926</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-2.506356704908203</v>
+        <v>26.81803737680758</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-9.431409047348156</v>
+        <v>26.81803736290429</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.391731579545726</v>
+        <v>26.81803739335163</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>13.44137352294142</v>
+        <v>26.81803740191325</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>17.01921963362856</v>
+        <v>26.81803740976039</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>7.396154916150505</v>
+        <v>26.81803739425765</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>6.558392149452218</v>
+        <v>26.81803729865032</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>5.676927413870399</v>
+        <v>26.818037309689</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>7.073695075813712</v>
+        <v>26.81803731540858</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>1.841640823912664</v>
+        <v>26.81803730505219</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>4.68265543355502</v>
+        <v>26.8180373430761</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>9.349530638678727</v>
+        <v>26.81803730896925</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>10.30510205780715</v>
+        <v>26.81803731993771</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>12.48032504386055</v>
+        <v>26.81803732613957</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>6.207705794539591</v>
+        <v>26.81803731483162</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.42595331152112</v>
+        <v>26.81803735727307</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>12.94401050296242</v>
+        <v>26.81803731105357</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.87751628057135</v>
+        <v>26.81803732186205</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>16.16725632619758</v>
+        <v>26.81803732807104</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>9.558915092443861</v>
+        <v>26.81803731674828</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>14.72269128364124</v>
+        <v>26.81803735942227</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-15.60496886800084</v>
+        <v>26.81803730504421</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-13.90071773451978</v>
+        <v>26.81803731582102</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-12.08580673949903</v>
+        <v>26.81803732173122</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-17.4567113851664</v>
+        <v>26.81803731103423</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>-17.06534529202614</v>
+        <v>26.81803735106697</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>5.104804898855563</v>
+        <v>26.81803735441276</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>6.659664199165552</v>
+        <v>26.8180373611441</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>1.289103040415299</v>
+        <v>26.8180373485486</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>18.1293261407434</v>
+        <v>26.81803737635956</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>21.27881801516642</v>
+        <v>26.81803738531088</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>23.78665571264528</v>
+        <v>26.81803739242911</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>15.79700223380278</v>
+        <v>26.81803737838149</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>12.31158194012566</v>
+        <v>26.8180373683636</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>14.84526090471195</v>
+        <v>26.81803737566762</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>8.260814720718633</v>
+        <v>26.81803736198626</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>26.49393989447681</v>
+        <v>26.81803739210222</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.3864853282247</v>
+        <v>26.81803740071452</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.99404807316809</v>
+        <v>26.81803740843594</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.60922883464829</v>
+        <v>26.81803739321196</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.53032979911717</v>
+        <v>26.81803737032011</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.22552902850871</v>
+        <v>26.81803737763287</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>12.31824000064894</v>
+        <v>26.81803736395008</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.43509730521077</v>
+        <v>26.81803739428388</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.27547267180672</v>
+        <v>26.81803740270666</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>40.05678590143856</v>
+        <v>26.81803741044261</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.32375645215645</v>
+        <v>26.81803739520641</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-14.15953032487058</v>
+        <v>26.81803736199129</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-12.05260699932946</v>
+        <v>26.81803736895285</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-17.63769174665311</v>
+        <v>26.81803735599598</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-1.572450412679712</v>
+        <v>26.81803738536442</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>4.225566425456868</v>
+        <v>26.81803739384925</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>7.37924963409755</v>
+        <v>26.81803740122972</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-0.9883261595930828</v>
+        <v>26.81803738673807</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.07316810198893</v>
+        <v>26.81803731168831</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.20508381280551</v>
+        <v>26.81803732331925</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>31.46575050397898</v>
+        <v>26.81803732998139</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>24.57994386805079</v>
+        <v>26.81803731756576</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>23.33938537537548</v>
+        <v>26.81803736193297</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>34.86927919912619</v>
+        <v>26.81803732493213</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>37.13146659992832</v>
+        <v>26.81803733646913</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>40.36795500343844</v>
+        <v>26.81803734369953</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>32.14588424252555</v>
+        <v>26.81803733014676</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>32.644589105759</v>
+        <v>26.81803737964248</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>39.2662372781997</v>
+        <v>26.81803732730785</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>41.51613100081884</v>
+        <v>26.81803733866863</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>44.90637312470319</v>
+        <v>26.81803734590974</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>36.27709120669236</v>
+        <v>26.81803733233643</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>37.91029198419347</v>
+        <v>26.81803738213131</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>6.550746910155092</v>
+        <v>26.81803731957572</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>9.649477117499575</v>
+        <v>26.81803733092199</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>12.46498688287998</v>
+        <v>26.81803733781052</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>5.291654752320592</v>
+        <v>26.8180373249851</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>1.213912524644341</v>
+        <v>26.81803737178165</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>26.20031333708961</v>
+        <v>26.81803737391891</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.73034110489714</v>
+        <v>26.81803738168709</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.02984415685987</v>
+        <v>26.81803736680915</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.71133245234857</v>
+        <v>26.81803739446703</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>39.36614594311901</v>
+        <v>26.81803740368155</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.52807662891649</v>
+        <v>26.81803741180375</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>33.53015834077375</v>
+        <v>26.81803739546812</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>37.22490429118896</v>
+        <v>26.8180373913491</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.94722747375558</v>
+        <v>26.81803739978777</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.72890241932043</v>
+        <v>26.81803738363449</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.58257483073562</v>
+        <v>26.81803741366763</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>53.22110272860174</v>
+        <v>26.81803742247693</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>57.69846256845466</v>
+        <v>26.81803743130096</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>46.98051879893615</v>
+        <v>26.81803741359644</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.40628708852761</v>
+        <v>26.81803739362793</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>46.3303378408666</v>
+        <v>26.81803740208012</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.72173270704302</v>
+        <v>26.81803738592212</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>52.53241427499923</v>
+        <v>26.8180374161912</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>59.10391997324573</v>
+        <v>26.81803742479128</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>63.7975169161115</v>
+        <v>26.81803743363516</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>52.65128622973909</v>
+        <v>26.81803741591234</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>6.948471330885059</v>
+        <v>26.81803738331799</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>10.17713613880075</v>
+        <v>26.81803739135917</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>3.120132775014656</v>
+        <v>26.81803737605448</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>14.65247628016485</v>
+        <v>26.8180374053469</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>22.31074987328228</v>
+        <v>26.81803741403671</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>26.26343765731674</v>
+        <v>26.81803742246584</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>16.7332228304288</v>
+        <v>26.81803740560581</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>37.21530526981962</v>
+        <v>26.81803731632544</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.58682695499134</v>
+        <v>26.8180373268228</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>39.8133149159359</v>
+        <v>26.8180373331399</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.92697360631981</v>
+        <v>26.81803732132043</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.12821476322921</v>
+        <v>26.81803736139949</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>41.39468418852027</v>
+        <v>26.81803732798396</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>42.74345830562445</v>
+        <v>26.81803733835335</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>46.84822614041639</v>
+        <v>26.81803734519563</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>35.80286056159571</v>
+        <v>26.81803733233815</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.5871523640192</v>
+        <v>26.81803737716655</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>44.95575116126361</v>
+        <v>26.8180373300122</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>46.28989198370058</v>
+        <v>26.81803734022309</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>50.51407755830606</v>
+        <v>26.81803734707207</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.14041768326395</v>
+        <v>26.81803733420579</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.9808782453949</v>
+        <v>26.81803737929128</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>15.42837713608518</v>
+        <v>26.81803732310502</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>17.53459901795704</v>
+        <v>26.81803733332469</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>21.27207281609421</v>
+        <v>26.8180373398472</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>11.11429626261168</v>
+        <v>26.81803732766551</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>9.829945014797824</v>
+        <v>26.81803736991434</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>32.69217602350535</v>
+        <v>26.81803737235928</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>35.91116625079555</v>
+        <v>26.81803737972096</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.68264340225715</v>
+        <v>26.81803736561704</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>37.40147273491277</v>
+        <v>26.81803739260421</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>41.98427241805583</v>
+        <v>26.81803740112458</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>46.04908864451611</v>
+        <v>26.81803740884446</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.85304304637022</v>
+        <v>26.8180373933652</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>41.72967091857065</v>
+        <v>26.81803738780716</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>46.04160185850926</v>
+        <v>26.81803739578921</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.46195382071344</v>
+        <v>26.81803738050489</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>47.23522063013259</v>
+        <v>26.81803740979167</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>53.68858645299274</v>
+        <v>26.8180374178936</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>58.96691246112283</v>
+        <v>26.81803742626387</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>46.24540737294588</v>
+        <v>26.81803740951726</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>46.05323676585648</v>
+        <v>26.81803738973644</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>50.5365176069533</v>
+        <v>26.81803739772665</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>39.63327690173055</v>
+        <v>26.81803738244679</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>52.31263632819332</v>
+        <v>26.81803741195055</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>58.71844350492253</v>
+        <v>26.8180374198601</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>64.1805910458463</v>
+        <v>26.81803742824469</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>51.10402356551421</v>
+        <v>26.8180374114911</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>14.0366024286942</v>
+        <v>26.81803738043101</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>17.90813078627738</v>
+        <v>26.81803738803846</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>8.333417738500744</v>
+        <v>26.81803737354796</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>17.89928976339777</v>
+        <v>26.81803740207053</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.29922503269819</v>
+        <v>26.81803741009611</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>30.10792882178496</v>
+        <v>26.81803741809399</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>18.41799001648301</v>
+        <v>26.8180374021458</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>35.18887697801948</v>
+        <v>26.81803731885998</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>33.38003714375431</v>
+        <v>26.81803733003618</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.46013601039551</v>
+        <v>26.81803733704002</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.7084854918772</v>
+        <v>26.81803732373609</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>33.59631514368579</v>
+        <v>26.81803737146549</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>41.08651627747728</v>
+        <v>26.81803733250085</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>41.45942402373687</v>
+        <v>26.81803734356003</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>45.56050702824314</v>
+        <v>26.81803735115349</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>34.38887072054005</v>
+        <v>26.81803733666487</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>43.40145875055616</v>
+        <v>26.81803738970798</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>45.47332888583552</v>
+        <v>26.81803733482253</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>45.83609818118263</v>
+        <v>26.81803734570741</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>50.09418550296938</v>
+        <v>26.81803735331112</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.50682800485941</v>
+        <v>26.81803733880445</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>48.70524450383994</v>
+        <v>26.81803739213216</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>12.08518902881574</v>
+        <v>26.81803732684364</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>13.28532458588861</v>
+        <v>26.81803733772501</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>16.96084457295147</v>
+        <v>26.81803734496345</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>6.836676012535894</v>
+        <v>26.81803733123067</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>11.12007159815025</v>
+        <v>26.81803738144245</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.56807361439422</v>
+        <v>26.8180373831186</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>39.15968689244308</v>
+        <v>26.81803739128306</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.64731765574527</v>
+        <v>26.81803737541652</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>39.80375049424541</v>
+        <v>26.81803740334814</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>43.75751789212602</v>
+        <v>26.81803741222184</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>47.86939354751416</v>
+        <v>26.8180374207286</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>36.53930655583542</v>
+        <v>26.8180374034544</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>47.12783122780212</v>
+        <v>26.81803740103954</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.97505643902542</v>
+        <v>26.81803740989914</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>40.84174893584711</v>
+        <v>26.81803739270494</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>51.99072549705664</v>
+        <v>26.81803742306104</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.0005939038766</v>
+        <v>26.8180374314887</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>63.49233246657748</v>
+        <v>26.81803744072173</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>50.35382345575245</v>
+        <v>26.8180374220267</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>52.34121932320368</v>
+        <v>26.81803740325208</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>57.39554632605341</v>
+        <v>26.81803741212475</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>45.86542294804097</v>
+        <v>26.81803739492954</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>58.0332788676309</v>
+        <v>26.81803742553269</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>63.97558899768862</v>
+        <v>26.81803743374805</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>69.69068417879896</v>
+        <v>26.81803744300073</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>56.11442315349634</v>
+        <v>26.81803742428962</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>16.01620358572084</v>
+        <v>26.81803739262681</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>20.36241501514907</v>
+        <v>26.8180374010736</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>10.40011266329005</v>
+        <v>26.81803738476332</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.22781566311659</v>
+        <v>26.81803741436551</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.26237397188296</v>
+        <v>26.81803742269231</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.22066924116332</v>
+        <v>26.81803743151555</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>19.28068879635753</v>
+        <v>26.81803741369799</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>36.6404883814542</v>
+        <v>26.81803731812214</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.58943777479756</v>
+        <v>26.81803732894475</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36.08742986940231</v>
+        <v>26.81803733554737</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>27.57061142948449</v>
+        <v>26.81803732309097</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>37.60170549898503</v>
+        <v>26.81803736973831</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>42.50909757142515</v>
+        <v>26.81803733127153</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>41.56819133451727</v>
+        <v>26.81803734200033</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>45.06704900268434</v>
+        <v>26.81803734916536</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>35.14749411024052</v>
+        <v>26.81803733558103</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>47.23961458901519</v>
+        <v>26.81803738731271</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>47.01048058876674</v>
+        <v>26.81803733361475</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>46.0592050175385</v>
+        <v>26.81803734417425</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>49.71801095443887</v>
+        <v>26.81803735135135</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>39.37726808799314</v>
+        <v>26.81803733774455</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>52.59039438604692</v>
+        <v>26.81803738972074</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>13.86478762862805</v>
+        <v>26.81803732603724</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>13.73769117951139</v>
+        <v>26.81803733657813</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>16.80978529421741</v>
+        <v>26.81803734340874</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>7.945324641644313</v>
+        <v>26.81803733053396</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>15.43240515064405</v>
+        <v>26.81803737950292</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>37.18075145230833</v>
+        <v>26.81803738077547</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>40.09948423468239</v>
+        <v>26.81803738845703</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>31.64441459218239</v>
+        <v>26.81803737355147</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>43.9754689827034</v>
+        <v>26.81803740038767</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>45.4694859991242</v>
+        <v>26.81803740876605</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>48.89070235247146</v>
+        <v>26.81803741677558</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>38.52339543170768</v>
+        <v>26.81803740051703</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>48.51089379067303</v>
+        <v>26.81803739805712</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>52.65279646624068</v>
+        <v>26.81803740640034</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.61178542179459</v>
+        <v>26.818037390233</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>56.0518603621973</v>
+        <v>26.81803741939236</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>59.51927011882351</v>
+        <v>26.81803742736133</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>64.28591288870537</v>
+        <v>26.81803743606187</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>52.14436271658391</v>
+        <v>26.81803741845177</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>53.77843995265501</v>
+        <v>26.81803740026374</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>58.1266599991945</v>
+        <v>26.81803740862124</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>47.688798455055</v>
+        <v>26.8180373924491</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>62.11497555583922</v>
+        <v>26.81803742184078</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>65.51679597928512</v>
+        <v>26.81803742960805</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>70.50524735669586</v>
+        <v>26.8180374383288</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>57.92747519149996</v>
+        <v>26.81803742069974</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>17.83474166384109</v>
+        <v>26.81803739009807</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>21.47662254396408</v>
+        <v>26.81803739805142</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>12.60575083467788</v>
+        <v>26.81803738271858</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>23.73439880110508</v>
+        <v>26.81803741115061</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.19437170761393</v>
+        <v>26.81803741901077</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>32.4290706752403</v>
+        <v>26.81803742732354</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>21.48404130778868</v>
+        <v>26.81803741054191</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>32.13881110479133</v>
+        <v>26.81803731554924</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.2253120242219</v>
+        <v>26.81803732667052</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.38371227453351</v>
+        <v>26.81803733344769</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.43930793300034</v>
+        <v>26.81803732068014</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.93398902731987</v>
+        <v>26.81803736478414</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>38.30127934664471</v>
+        <v>26.81803732860629</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>39.46029062347115</v>
+        <v>26.81803733957907</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>43.60474289642923</v>
+        <v>26.81803734693021</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>32.28334733760946</v>
+        <v>26.81803733302167</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>38.45674713423404</v>
+        <v>26.81803738215406</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>42.51080162864784</v>
+        <v>26.8180373308357</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>43.65783035344061</v>
+        <v>26.81803734164076</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>47.9465131438736</v>
+        <v>26.81803734900025</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>36.23648987790339</v>
+        <v>26.81803733508048</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>43.51953387912918</v>
+        <v>26.81803738447407</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>9.914804746957071</v>
+        <v>26.81803732304351</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>11.89684206533692</v>
+        <v>26.8180373338825</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>15.63354613203805</v>
+        <v>26.81803734088196</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>5.315735086614391</v>
+        <v>26.81803732772137</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>7.150920474251572</v>
+        <v>26.81803737410789</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>30.51486409622897</v>
+        <v>26.81803737632589</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>33.83474543640667</v>
+        <v>26.81803738422823</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.29672269465936</v>
+        <v>26.81803736895433</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>36.08961650654508</v>
+        <v>26.81803739690725</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>40.15917961174569</v>
+        <v>26.81803740581181</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>44.31116135928507</v>
+        <v>26.81803741407638</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>32.66147038164043</v>
+        <v>26.81803739738158</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.68542574656263</v>
+        <v>26.81803739335331</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>46.2126168747906</v>
+        <v>26.81803740193185</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.11246712919453</v>
+        <v>26.81803738537396</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>48.02984445085399</v>
+        <v>26.81803741579184</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>54.03867469491633</v>
+        <v>26.81803742423575</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>59.52260627480379</v>
+        <v>26.81803743320817</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>46.12249156803961</v>
+        <v>26.81803741513638</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>46.66463963181345</v>
+        <v>26.81803739546664</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>51.38825004958766</v>
+        <v>26.81803740405512</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>39.9085851338937</v>
+        <v>26.81803738750167</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>53.81520768279222</v>
+        <v>26.81803741817124</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>59.76719984397587</v>
+        <v>26.81803742640896</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>65.46162021799695</v>
+        <v>26.81803743539832</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>51.6481946656527</v>
+        <v>26.81803741731725</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>11.5292168740338</v>
+        <v>26.81803738518538</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.57597433617209</v>
+        <v>26.81803739335325</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>5.595483673112308</v>
+        <v>26.81803737766395</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.19148566139836</v>
+        <v>26.81803740729559</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>23.22011607958165</v>
+        <v>26.81803741567254</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.19336757809226</v>
+        <v>26.81803742423795</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>15.93889582423306</v>
+        <v>26.81803740703686</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>19.38588806848719</v>
+        <v>26.81803730947829</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>18.19297398422194</v>
+        <v>26.81803732050928</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>19.94011308633665</v>
+        <v>26.81803732650728</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>13.53557015511239</v>
+        <v>26.81803731538099</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>24.31976867854948</v>
+        <v>26.81803735811276</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>24.14650734302607</v>
+        <v>26.81803732132902</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>24.84921555318299</v>
+        <v>26.81803733228577</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.46320417794512</v>
+        <v>26.81803733879961</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>19.84898388993561</v>
+        <v>26.81803732664587</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.83322906022309</v>
+        <v>26.81803737423455</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>27.91181207060676</v>
+        <v>26.81803732352186</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.61500396213548</v>
+        <v>26.8180373343143</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.36029728732091</v>
+        <v>26.81803734083705</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>23.39142679988522</v>
+        <v>26.8180373286667</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>37.42024483833534</v>
+        <v>26.81803737651182</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-1.889511082683127</v>
+        <v>26.81803731666584</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-0.417342480739884</v>
+        <v>26.81803732743192</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>1.811055292086542</v>
+        <v>26.81803733363488</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-4.83783398120337</v>
+        <v>26.81803732214054</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>3.948399333257469</v>
+        <v>26.81803736709809</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.7992391100101</v>
+        <v>26.81803736934283</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.15094571482964</v>
+        <v>26.81803737642059</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>21.11148831997704</v>
+        <v>26.81803736290061</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>33.25643946547829</v>
+        <v>26.81803738788548</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>36.50164403408736</v>
+        <v>26.81803739653</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>39.48211331390073</v>
+        <v>26.81803740393786</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>30.48581048917668</v>
+        <v>26.81803738906302</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>35.82742000867399</v>
+        <v>26.81803738520606</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>39.2680262872884</v>
+        <v>26.81803739289857</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>30.81093562395897</v>
+        <v>26.81803737821303</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>44.24532257328002</v>
+        <v>26.81803740542545</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.23720470602774</v>
+        <v>26.81803741369395</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>53.42463413195031</v>
+        <v>26.8180374217459</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>42.81998095025182</v>
+        <v>26.81803740561755</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>40.34999625737441</v>
+        <v>26.81803738729147</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>43.96918346645143</v>
+        <v>26.81803739499473</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>35.16775209440173</v>
+        <v>26.81803738030899</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>49.50803449218897</v>
+        <v>26.81803740774016</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>54.44352839836858</v>
+        <v>26.81803741581687</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>58.82405682764376</v>
+        <v>26.81803742388562</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>47.83415075616573</v>
+        <v>26.81803740774393</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>8.008342689266071</v>
+        <v>26.81803737791534</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>10.99619548393435</v>
+        <v>26.81803738523937</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>3.606080002101621</v>
+        <v>26.81803737133632</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>14.86094622041866</v>
+        <v>26.81803739782034</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>20.80170189317473</v>
+        <v>26.81803740598027</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>24.50789058964553</v>
+        <v>26.8180374136653</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>14.99630451568317</v>
+        <v>26.81803739831778</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.54189124238537</v>
+        <v>26.81803731605679</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.73125920811245</v>
+        <v>26.81803732709301</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.97666111994871</v>
+        <v>26.81803733364512</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.23991144768338</v>
+        <v>26.81803732134419</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.33733765782501</v>
+        <v>26.81803736715612</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>34.334140445119</v>
+        <v>26.81803732919078</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>34.63900438616983</v>
+        <v>26.81803734013731</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.87705617091623</v>
+        <v>26.8180373472498</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.75114801786433</v>
+        <v>26.81803733382583</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>38.8752840153299</v>
+        <v>26.81803738470618</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>38.90924531921726</v>
+        <v>26.81803733158401</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>39.19496949994261</v>
+        <v>26.81803734235704</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>42.5938656445065</v>
+        <v>26.81803734948215</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>33.04354419768246</v>
+        <v>26.81803733603364</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>44.28345531215621</v>
+        <v>26.81803738716281</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>5.674348420355833</v>
+        <v>26.81803732405121</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>6.806218688293998</v>
+        <v>26.81803733480109</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>9.616775876232538</v>
+        <v>26.81803734158137</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>1.55182783268466</v>
+        <v>26.81803732886092</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>7.06131721221804</v>
+        <v>26.81803737698428</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>30.16856102153478</v>
+        <v>26.81803737842408</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>32.85265782741328</v>
+        <v>26.8180373860524</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>25.00251148184244</v>
+        <v>26.8180373713052</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>35.59480383507474</v>
+        <v>26.81803739778018</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>38.29465560682001</v>
+        <v>26.8180374063795</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>41.49740967513273</v>
+        <v>26.81803741433762</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>31.72591042876292</v>
+        <v>26.81803739823212</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>41.41077044113669</v>
+        <v>26.8180373956874</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>45.31061942252661</v>
+        <v>26.81803740397568</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>35.88632059979759</v>
+        <v>26.81803738797153</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>47.60497097393905</v>
+        <v>26.81803741676233</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>52.28272554405766</v>
+        <v>26.81803742495778</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>56.82345320606564</v>
+        <v>26.81803743360542</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>45.28449589566183</v>
+        <v>26.81803741615241</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>46.72886604518831</v>
+        <v>26.81803739793912</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>50.8356498738742</v>
+        <v>26.81803740624219</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>41.01178019061675</v>
+        <v>26.81803739023138</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>53.72303182105949</v>
+        <v>26.81803741925748</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>58.3263001243793</v>
+        <v>26.8180374272479</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>63.08922644708542</v>
+        <v>26.8180374359162</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>51.11024683193938</v>
+        <v>26.81803741844248</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>10.73925425991386</v>
+        <v>26.81803738780809</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>14.13843762980912</v>
+        <v>26.81803739570799</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>5.887414715409258</v>
+        <v>26.81803738053328</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>15.26296658273006</v>
+        <v>26.81803740860702</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>20.94658272686412</v>
+        <v>26.81803741668504</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>24.9550053567135</v>
+        <v>26.81803742494609</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>14.61731878512966</v>
+        <v>26.81803740831691</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>38.57876276296528</v>
+        <v>26.81803732386549</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>37.14619177695379</v>
+        <v>26.8180373338642</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>40.14080241488471</v>
+        <v>26.81803734019401</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.68930428881723</v>
+        <v>26.81803732819268</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>34.40982880051627</v>
+        <v>26.81803737080376</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>42.96140296403681</v>
+        <v>26.81803733589318</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>43.52877979580322</v>
+        <v>26.81803734578652</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>47.42240218967427</v>
+        <v>26.81803735264379</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>36.73459526069129</v>
+        <v>26.81803733958831</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>42.22953912807723</v>
+        <v>26.81803738700775</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>46.66336906972432</v>
+        <v>26.81803733791642</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>47.22860537156774</v>
+        <v>26.81803734765316</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>51.25365441284625</v>
+        <v>26.81803735451804</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>40.20494714158103</v>
+        <v>26.81803734144909</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>46.86902977298437</v>
+        <v>26.81803738914563</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>17.30108963548635</v>
+        <v>26.81803733081604</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>18.6030515536123</v>
+        <v>26.81803734054538</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>22.12082346026761</v>
+        <v>26.81803734708313</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>12.35257501469591</v>
+        <v>26.81803733470362</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>13.66741523175517</v>
+        <v>26.81803737960418</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>36.29130911390462</v>
+        <v>26.81803738121775</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>39.68306538299635</v>
+        <v>26.81803738859792</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>30.50174867003103</v>
+        <v>26.81803737430274</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>40.89424023774768</v>
+        <v>26.81803739990574</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>44.81393202456855</v>
+        <v>26.81803740786676</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>48.66529067347097</v>
+        <v>26.81803741556929</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>37.87245265270381</v>
+        <v>26.81803739997537</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>45.70056756061437</v>
+        <v>26.81803739711485</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>50.20078097258002</v>
+        <v>26.81803740512029</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>39.59257068688203</v>
+        <v>26.81803738963017</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>50.96270912682992</v>
+        <v>26.81803741745472</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>56.74448818617562</v>
+        <v>26.81803742500225</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>61.8213840295919</v>
+        <v>26.81803743335733</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>49.44013063204955</v>
+        <v>26.81803741648663</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>50.26207642026162</v>
+        <v>26.81803739905947</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>54.94080668749903</v>
+        <v>26.81803740707543</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>43.98284943723999</v>
+        <v>26.81803739158516</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>56.27769083702327</v>
+        <v>26.81803741963238</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>62.00090908745268</v>
+        <v>26.81803742698729</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>67.27162350031058</v>
+        <v>26.81803743535889</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>54.5079643142594</v>
+        <v>26.81803741847538</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>18.18793819589524</v>
+        <v>26.81803738957731</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>22.24596710809065</v>
+        <v>26.81803739720978</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>12.66915893085208</v>
+        <v>26.81803738251326</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>21.92944449336235</v>
+        <v>26.81803740963083</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>28.63425817564994</v>
+        <v>26.81803741708818</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>33.2367585082391</v>
+        <v>26.81803742507465</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>21.91152033222715</v>
+        <v>26.81803740899246</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>31.92357234805889</v>
+        <v>26.81803731702479</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>30.62210240730107</v>
+        <v>26.81803732799273</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>33.7914722843376</v>
+        <v>26.81803733473066</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>23.99236527355994</v>
+        <v>26.81803732203057</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>29.91169338714442</v>
+        <v>26.81803736625199</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>38.12938091429815</v>
+        <v>26.81803733012223</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>38.8634938141565</v>
+        <v>26.81803734093552</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>43.01555055266371</v>
+        <v>26.81803734824588</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>31.8402335377514</v>
+        <v>26.81803733440472</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>39.43674383395258</v>
+        <v>26.81803738360733</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>42.33971568211141</v>
+        <v>26.81803733236449</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>43.05940080550856</v>
+        <v>26.81803734301015</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>47.35654087294667</v>
+        <v>26.81803735032953</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>35.79203470725135</v>
+        <v>26.81803733647539</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>44.49763986170682</v>
+        <v>26.81803738592625</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>9.963016095873133</v>
+        <v>26.81803732459307</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>11.51422221383158</v>
+        <v>26.81803733527586</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>15.26087766844651</v>
+        <v>26.81803734223757</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>5.085843277729133</v>
+        <v>26.81803732914059</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>8.396712520555317</v>
+        <v>26.81803737558394</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>31.32107486607138</v>
+        <v>26.81803737763467</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>34.70470935974473</v>
+        <v>26.81803738549119</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>25.16574870136285</v>
+        <v>26.81803737031052</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>35.91826524753318</v>
+        <v>26.81803739742436</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>39.56156096881073</v>
+        <v>26.81803740620583</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>43.66558140844978</v>
+        <v>26.81803741440675</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>32.11072590585628</v>
+        <v>26.81803739784666</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>42.46918218412758</v>
+        <v>26.81803739464113</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>47.05405845664248</v>
+        <v>26.81803740317017</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>35.95338146982736</v>
+        <v>26.81803738670827</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>47.81402686427126</v>
+        <v>26.81803741628369</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>53.36590046607314</v>
+        <v>26.81803742459937</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>58.79398511191506</v>
+        <v>26.81803743350456</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>45.49261444116924</v>
+        <v>26.81803741557083</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>47.4479976923628</v>
+        <v>26.81803739675501</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>52.22948710822375</v>
+        <v>26.81803740529455</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>40.74992450401749</v>
+        <v>26.8180373888358</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>53.57630546843512</v>
+        <v>26.81803741866665</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>59.07131011677102</v>
+        <v>26.81803742677681</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>64.70990611761363</v>
+        <v>26.81803743569941</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>50.99592916962884</v>
+        <v>26.81803741775483</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>12.56839276284516</v>
+        <v>26.81803738650754</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>16.67667924845749</v>
+        <v>26.81803739462977</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>6.688720756837106</v>
+        <v>26.81803737903515</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>16.26190476591874</v>
+        <v>26.81803740781916</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>22.82352154704133</v>
+        <v>26.81803741607423</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>27.74489833150576</v>
+        <v>26.81803742457538</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>15.58177082386339</v>
+        <v>26.81803740750946</v>
       </c>
     </row>
   </sheetData>
